--- a/2.PreliminaryDesign/测试用例.xlsx
+++ b/2.PreliminaryDesign/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="21288" windowHeight="10524" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="订餐" sheetId="1" r:id="rId1"/>
@@ -505,10 +505,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -549,7 +549,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,6 +598,52 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,58 +662,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -638,41 +670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,31 +694,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,43 +736,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,31 +766,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,25 +814,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,25 +856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,6 +1494,17 @@
       </top>
       <bottom style="thick">
         <color theme="6" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,15 +1524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1537,6 +1539,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1552,17 +1578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,26 +1595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1603,10 +1603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1615,133 +1615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2301,13 +2301,13 @@
       <selection activeCell="F18" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="1.75" style="64" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="64" customWidth="1"/>
-    <col min="3" max="3" width="17.1333333333333" style="64" customWidth="1"/>
+    <col min="3" max="3" width="17.1296296296296" style="64" customWidth="1"/>
     <col min="4" max="4" width="34" style="64" customWidth="1"/>
-    <col min="5" max="5" width="36.3833333333333" style="64" customWidth="1"/>
+    <col min="5" max="5" width="36.3796296296296" style="64" customWidth="1"/>
     <col min="6" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
@@ -2721,14 +2721,14 @@
       <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E17" s="59"/>
     </row>
-    <row r="18" ht="14.25"/>
+    <row r="18" ht="15.15"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="B1:E1"/>
@@ -2930,14 +2930,14 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.63333333333333" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E22" s="59"/>
     </row>
-    <row r="23" ht="14.25"/>
+    <row r="23" ht="15.15"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="B1:E1"/>
@@ -3192,14 +3192,14 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.63333333333333" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.62962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="E12" s="59"/>
     </row>
-    <row r="13" ht="14.25"/>
+    <row r="13" ht="15.15"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:E1"/>
@@ -3347,14 +3347,14 @@
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.13333333333333" customWidth="1"/>
-    <col min="2" max="3" width="16.225" customWidth="1"/>
-    <col min="4" max="5" width="34.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.12962962962963" customWidth="1"/>
+    <col min="2" max="3" width="16.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:5">
+    <row r="1" ht="15.15" spans="2:5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="E16" s="59"/>
     </row>
-    <row r="17" ht="14.25"/>
+    <row r="17" ht="15.15"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B1:E1"/>
@@ -3543,18 +3543,18 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="20.425" customWidth="1"/>
-    <col min="6" max="6" width="7.325" customWidth="1"/>
-    <col min="9" max="9" width="5.94166666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.4259259259259" customWidth="1"/>
+    <col min="6" max="6" width="7.32407407407407" customWidth="1"/>
+    <col min="9" max="9" width="5.94444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
+    <row r="1" ht="15.15" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3773,7 +3773,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" ht="14.25" spans="1:11">
+    <row r="14" ht="15.15" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3786,7 +3786,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" ht="14.25" spans="1:11">
+    <row r="15" ht="15.15" spans="1:11">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -3984,7 +3984,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" ht="14.25" spans="1:11">
+    <row r="27" ht="15.15" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4114,7 +4114,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" ht="14.25" spans="1:11">
+    <row r="35" ht="15.15" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4127,7 +4127,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" ht="14.25" spans="1:11">
+    <row r="36" ht="15.15" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4321,7 +4321,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" ht="14.25" spans="1:11">
+    <row r="48" ht="15.15" spans="1:11">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
